--- a/Gamlss_dists/Interpretacao distribuicoes.xlsx
+++ b/Gamlss_dists/Interpretacao distribuicoes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\Documents\GitHub\trabalho__taxas_proporcoes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\Documents\GitHub\trabalho__taxas_proporcoes\Gamlss_dists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CA60C9-C44C-4111-80E8-385D21585F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A387D843-E3AF-4CB5-BF98-B2F99191872E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E3E6DA7E-24D8-471E-A62B-6D7DE6058F41}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
   <si>
     <t>Distribuição</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>Melhores / Obrigatórias</t>
+  </si>
+  <si>
+    <t>Reflected Burr XII</t>
+  </si>
+  <si>
+    <t>RUBXII</t>
   </si>
 </sst>
 </file>
@@ -343,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -433,6 +439,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEEF90F-1345-41C1-A41F-CDB746888C5C}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" activeCellId="5" sqref="A3 A5 A6 A12 A13 A8"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,40 +1004,61 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="23" t="s">
+      <c r="B13" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="F16" s="33"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C18" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
